--- a/biology/Botanique/Gomphrena/Gomphrena.xlsx
+++ b/biology/Botanique/Gomphrena/Gomphrena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gomphrena est un genre de plante sauvage de la famille des Amaranthaceae originaire d'Amazonie.
 En phytothérapie, c'est sa racine, réduite en poudre, qui est utilisée.
@@ -513,9 +525,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux espèces de ce genre sont considérées comme toxiques avec certitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux espèces de ce genre sont considérées comme toxiques avec certitude.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Propriétés supposées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possèderait un effet antiradicaux libres, antistress, calmant, antioxydant.
 Elle contient des vitamines A, E et du groupe B, ainsi que les minéraux suivants : Germanium, Sélénium, Fer, Zinc, Calcium, Manganèse, Potassium, ainsi que des saponosides, allantoïdes et acides aminés essentiels.
@@ -576,11 +592,13 @@
           <t>Utilisation courante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Utilisée pour prévenir le stress, elle aurait un effet relaxant. Son action serait autant visible sur le physique que le psychique. Il serait aussi conseillé pour les personnes de plus de 50 ans (diminution de masse musculaire, perte de mémoire, manque de concentration...), les personnes stressées, et les sportifs (amélioration des performances musculaires).
 Elle diminuerait l'anxiété, lutterait contre la fatigue, l'agressivité et favoriserait le sommeil. Elle permettrait aussi de stimuler la mémoire, d'augmenter sa concentration et sa lucidité. Elle relaxerait les muscles en augmentant leur force.
-Il aurait une action bénéfique sur la digestion, car régulateur acido-basique de l’appareil digestif. Il protègerait contre le vieillissement cellulaire de la peau[3].
+Il aurait une action bénéfique sur la digestion, car régulateur acido-basique de l’appareil digestif. Il protègerait contre le vieillissement cellulaire de la peau.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS :
 Gomphrena caespitosa Torr.
 Gomphrena celosioides Mart.
 Gomphrena globosa L.
@@ -622,7 +642,7 @@
 Gomphrena serrata L.
 Gomphrena sonorae Torr.
 Gomphrena viridis Wooton &amp; Standl.
-Selon GBIF       (6 février 2024)[5] :
+Selon GBIF       (6 février 2024) :
 Gomphrena affinis F.Muell. ex Benth.
 Gomphrena agrestis Mart.
 Gomphrena agrostis
@@ -823,10 +843,12 @@
           <t>Systématique et taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Gomphrena L.[5].
-Gomphrena a pour synonymes[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Gomphrena L..
+Gomphrena a pour synonymes :
 Amaranthoides Mill.
 Bragantia Vand.
 Caraxeron Vaill. ex Raf.
